--- a/output/experiments/Aug2023_2/disturbance_sensitive.xlsx
+++ b/output/experiments/Aug2023_2/disturbance_sensitive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="89">
   <si>
     <t>status</t>
   </si>
@@ -184,10 +184,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>R</t>
   </si>
   <si>
     <t>Sum</t>
@@ -263,6 +260,18 @@
   </si>
   <si>
     <t>uniform_neg</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-02-Sum-ALL-Sum-0.0-0.03-uniform-2023-08-23_001.xlsx</t>
@@ -813,37 +822,37 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2">
         <v>13.6937916219119</v>
@@ -858,51 +867,54 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U2">
         <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>56</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
       <c r="M3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N3">
         <v>13.8919174559776</v>
@@ -917,51 +929,54 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U3">
         <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4">
         <v>14.0900432900433</v>
@@ -976,51 +991,54 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U4">
         <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>14.288169124109</v>
@@ -1035,51 +1053,54 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U5">
         <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="B6">
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6">
+        <v>438</v>
+      </c>
+      <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="H6">
-        <v>438</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
       <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
       <c r="M6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>14.4862949581747</v>
@@ -1094,7 +1115,7 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1104,41 +1125,41 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
+      <c r="B7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7">
         <v>13.8919174559776</v>
@@ -1153,10 +1174,10 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T7">
         <v>0.01</v>
@@ -1169,41 +1190,41 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" t="s">
-        <v>70</v>
-      </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N8">
         <v>13.8919174559776</v>
@@ -1218,10 +1239,10 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T8">
         <v>0.02</v>
@@ -1234,41 +1255,41 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N9">
         <v>13.8919174559776</v>
@@ -1283,10 +1304,10 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T9">
         <v>0.03</v>
@@ -1299,41 +1320,41 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
+      <c r="B10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10">
         <v>13.8919174559776</v>
@@ -1348,10 +1369,10 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T10">
         <v>0.04</v>
@@ -1364,41 +1385,41 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
+      <c r="B11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N11">
         <v>13.8919174559776</v>
@@ -1413,10 +1434,10 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T11">
         <v>0.05</v>
@@ -1429,41 +1450,41 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>56</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
         <v>69</v>
       </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>13.8919174559776</v>
@@ -1478,10 +1499,10 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T12">
         <v>0.01</v>
@@ -1494,41 +1515,41 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
         <v>69</v>
       </c>
-      <c r="K13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N13">
         <v>13.8919174559776</v>
@@ -1543,10 +1564,10 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T13">
         <v>0.02</v>
@@ -1559,41 +1580,41 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
         <v>69</v>
       </c>
-      <c r="K14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" t="s">
-        <v>70</v>
-      </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>13.8919174559776</v>
@@ -1608,10 +1629,10 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T14">
         <v>0.03</v>
@@ -1624,41 +1645,41 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>56</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
         <v>69</v>
       </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" t="s">
-        <v>70</v>
-      </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>13.8919174559776</v>
@@ -1673,10 +1694,10 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T15">
         <v>0.04</v>
@@ -1689,41 +1710,41 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" t="s">
         <v>69</v>
       </c>
-      <c r="K16" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" t="s">
-        <v>70</v>
-      </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>13.8919174559776</v>
@@ -1738,10 +1759,10 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T16">
         <v>0.05</v>
@@ -1754,41 +1775,41 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" t="s">
         <v>69</v>
       </c>
-      <c r="K17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17">
         <v>13.8919174559776</v>
@@ -1803,10 +1824,10 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T17">
         <v>0.01</v>
@@ -1819,41 +1840,41 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
         <v>69</v>
       </c>
-      <c r="K18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" t="s">
-        <v>70</v>
-      </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>13.8919174559776</v>
@@ -1868,10 +1889,10 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T18">
         <v>0.02</v>
@@ -1884,41 +1905,41 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
         <v>69</v>
       </c>
-      <c r="K19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
       <c r="M19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>13.8919174559776</v>
@@ -1933,10 +1954,10 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T19">
         <v>0.03</v>
@@ -1949,41 +1970,41 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
         <v>69</v>
       </c>
-      <c r="K20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" t="s">
-        <v>70</v>
-      </c>
       <c r="M20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20">
         <v>13.8919174559776</v>
@@ -1998,10 +2019,10 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T20">
         <v>0.04</v>
@@ -2014,41 +2035,41 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>56</v>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" t="s">
         <v>69</v>
       </c>
-      <c r="K21" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" t="s">
-        <v>70</v>
-      </c>
       <c r="M21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N21">
         <v>13.8919174559776</v>
@@ -2063,10 +2084,10 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T21">
         <v>0.05</v>
@@ -2079,42 +2100,42 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>57</v>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
         <v>69</v>
       </c>
-      <c r="K22" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>70</v>
       </c>
-      <c r="M22" t="s">
-        <v>71</v>
-      </c>
       <c r="N22">
         <v>13.8919174559776</v>
       </c>
@@ -2128,10 +2149,10 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T22">
         <v>0.03</v>
@@ -2149,7 +2170,7 @@
         <v>55.5172135</v>
       </c>
       <c r="Y22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Z22">
         <v>308.32739559151</v>
@@ -2240,42 +2261,42 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>57</v>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" t="s">
         <v>71</v>
       </c>
-      <c r="M23" t="s">
-        <v>72</v>
-      </c>
       <c r="N23">
         <v>13.8919174559776</v>
       </c>
@@ -2289,10 +2310,10 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T23">
         <v>0.03</v>
@@ -2310,7 +2331,7 @@
         <v>50.2103266</v>
       </c>
       <c r="Y23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Z23">
         <v>303.880780539529</v>
@@ -2401,42 +2422,42 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>57</v>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" t="s">
         <v>72</v>
       </c>
-      <c r="M24" t="s">
-        <v>73</v>
-      </c>
       <c r="N24">
         <v>13.8919174559776</v>
       </c>
@@ -2450,10 +2471,10 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T24">
         <v>0.03</v>
@@ -2471,7 +2492,7 @@
         <v>47.7376292</v>
       </c>
       <c r="Y24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z24">
         <v>307.2270504981099</v>
@@ -2569,38 +2590,38 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" t="s">
         <v>73</v>
       </c>
-      <c r="M25" t="s">
-        <v>74</v>
-      </c>
       <c r="N25">
         <v>13.8919174559776</v>
       </c>
@@ -2614,10 +2635,10 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T25">
         <v>0.03</v>
@@ -2634,38 +2655,38 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
         <v>74</v>
       </c>
-      <c r="M26" t="s">
-        <v>75</v>
-      </c>
       <c r="N26">
         <v>13.8919174559776</v>
       </c>
@@ -2679,10 +2700,10 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T26">
         <v>0.03</v>
@@ -2699,38 +2720,38 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" t="s">
         <v>75</v>
       </c>
-      <c r="M27" t="s">
-        <v>76</v>
-      </c>
       <c r="N27">
         <v>13.8919174559776</v>
       </c>
@@ -2744,10 +2765,10 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T27">
         <v>0.03</v>
@@ -2764,38 +2785,38 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" t="s">
         <v>76</v>
       </c>
-      <c r="M28" t="s">
-        <v>77</v>
-      </c>
       <c r="N28">
         <v>13.8919174559776</v>
       </c>
@@ -2809,10 +2830,10 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T28">
         <v>0.03</v>
@@ -2829,38 +2850,38 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
         <v>69</v>
       </c>
-      <c r="K29" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>70</v>
       </c>
-      <c r="M29" t="s">
-        <v>71</v>
-      </c>
       <c r="N29">
         <v>13.8919174559776</v>
       </c>
@@ -2874,10 +2895,10 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T29">
         <v>0.03</v>
@@ -2894,38 +2915,38 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" t="s">
         <v>71</v>
       </c>
-      <c r="M30" t="s">
-        <v>72</v>
-      </c>
       <c r="N30">
         <v>13.8919174559776</v>
       </c>
@@ -2939,10 +2960,10 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T30">
         <v>0.03</v>
@@ -2959,38 +2980,38 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" t="s">
         <v>72</v>
       </c>
-      <c r="M31" t="s">
-        <v>73</v>
-      </c>
       <c r="N31">
         <v>13.8919174559776</v>
       </c>
@@ -3004,10 +3025,10 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T31">
         <v>0.03</v>
@@ -3024,38 +3045,38 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M32" t="s">
         <v>73</v>
       </c>
-      <c r="M32" t="s">
-        <v>74</v>
-      </c>
       <c r="N32">
         <v>13.8919174559776</v>
       </c>
@@ -3069,10 +3090,10 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T32">
         <v>0.03</v>
@@ -3089,38 +3110,38 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
         <v>74</v>
       </c>
-      <c r="M33" t="s">
-        <v>75</v>
-      </c>
       <c r="N33">
         <v>13.8919174559776</v>
       </c>
@@ -3134,10 +3155,10 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T33">
         <v>0.03</v>
@@ -3154,38 +3175,38 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" t="s">
         <v>75</v>
       </c>
-      <c r="M34" t="s">
-        <v>76</v>
-      </c>
       <c r="N34">
         <v>13.8919174559776</v>
       </c>
@@ -3199,10 +3220,10 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T34">
         <v>0.03</v>
@@ -3219,38 +3240,38 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" t="s">
         <v>76</v>
       </c>
-      <c r="M35" t="s">
-        <v>77</v>
-      </c>
       <c r="N35">
         <v>13.8919174559776</v>
       </c>
@@ -3264,10 +3285,10 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T35">
         <v>0.03</v>
@@ -3284,38 +3305,38 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L36" t="s">
         <v>69</v>
       </c>
-      <c r="K36" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>70</v>
       </c>
-      <c r="M36" t="s">
-        <v>71</v>
-      </c>
       <c r="N36">
         <v>13.8919174559776</v>
       </c>
@@ -3329,10 +3350,10 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T36">
         <v>0.03</v>
@@ -3349,38 +3370,38 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s">
+        <v>70</v>
+      </c>
+      <c r="M37" t="s">
         <v>71</v>
       </c>
-      <c r="M37" t="s">
-        <v>72</v>
-      </c>
       <c r="N37">
         <v>13.8919174559776</v>
       </c>
@@ -3394,10 +3415,10 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T37">
         <v>0.03</v>
@@ -3414,38 +3435,38 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L38" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" t="s">
         <v>72</v>
       </c>
-      <c r="M38" t="s">
-        <v>73</v>
-      </c>
       <c r="N38">
         <v>13.8919174559776</v>
       </c>
@@ -3459,10 +3480,10 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T38">
         <v>0.03</v>
@@ -3479,38 +3500,38 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" t="s">
         <v>73</v>
       </c>
-      <c r="M39" t="s">
-        <v>74</v>
-      </c>
       <c r="N39">
         <v>13.8919174559776</v>
       </c>
@@ -3524,10 +3545,10 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T39">
         <v>0.03</v>
@@ -3544,38 +3565,38 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L40" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" t="s">
         <v>74</v>
       </c>
-      <c r="M40" t="s">
-        <v>75</v>
-      </c>
       <c r="N40">
         <v>13.8919174559776</v>
       </c>
@@ -3589,10 +3610,10 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T40">
         <v>0.03</v>
@@ -3609,38 +3630,38 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" t="s">
         <v>75</v>
       </c>
-      <c r="M41" t="s">
-        <v>76</v>
-      </c>
       <c r="N41">
         <v>13.8919174559776</v>
       </c>
@@ -3654,10 +3675,10 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T41">
         <v>0.03</v>
@@ -3674,38 +3695,38 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" t="s">
         <v>76</v>
       </c>
-      <c r="M42" t="s">
-        <v>77</v>
-      </c>
       <c r="N42">
         <v>13.8919174559776</v>
       </c>
@@ -3719,10 +3740,10 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T42">
         <v>0.03</v>
@@ -3739,37 +3760,37 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" t="s">
         <v>69</v>
       </c>
-      <c r="K43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" t="s">
-        <v>70</v>
-      </c>
       <c r="M43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N43">
         <v>13.8919174559776</v>
@@ -3784,10 +3805,10 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T43">
         <v>0.03</v>
@@ -3804,37 +3825,37 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" t="s">
+        <v>68</v>
+      </c>
+      <c r="L44" t="s">
         <v>69</v>
       </c>
-      <c r="K44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L44" t="s">
-        <v>70</v>
-      </c>
       <c r="M44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N44">
         <v>13.8919174559776</v>
@@ -3849,10 +3870,10 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T44">
         <v>0.03</v>
@@ -3869,37 +3890,37 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" t="s">
+        <v>68</v>
+      </c>
+      <c r="L45" t="s">
         <v>69</v>
       </c>
-      <c r="K45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L45" t="s">
-        <v>70</v>
-      </c>
       <c r="M45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N45">
         <v>13.8919174559776</v>
@@ -3914,10 +3935,10 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T45">
         <v>0.03</v>
@@ -3934,37 +3955,37 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" t="s">
+        <v>68</v>
+      </c>
+      <c r="L46" t="s">
         <v>69</v>
       </c>
-      <c r="K46" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" t="s">
-        <v>70</v>
-      </c>
       <c r="M46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N46">
         <v>13.8919174559776</v>
@@ -3979,10 +4000,10 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T46">
         <v>0.03</v>
@@ -3999,37 +4020,37 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47">
         <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" t="s">
+        <v>68</v>
+      </c>
+      <c r="L47" t="s">
         <v>69</v>
       </c>
-      <c r="K47" t="s">
-        <v>69</v>
-      </c>
-      <c r="L47" t="s">
-        <v>70</v>
-      </c>
       <c r="M47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N47">
         <v>13.8919174559776</v>
@@ -4044,10 +4065,10 @@
         <v>0.6</v>
       </c>
       <c r="R47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T47">
         <v>0.03</v>
@@ -4064,37 +4085,37 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48">
         <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" t="s">
         <v>69</v>
       </c>
-      <c r="K48" t="s">
-        <v>69</v>
-      </c>
-      <c r="L48" t="s">
-        <v>70</v>
-      </c>
       <c r="M48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N48">
         <v>13.8919174559776</v>
@@ -4109,10 +4130,10 @@
         <v>0.6</v>
       </c>
       <c r="R48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T48">
         <v>0.03</v>
@@ -4129,37 +4150,37 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H49">
         <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" t="s">
         <v>69</v>
       </c>
-      <c r="K49" t="s">
-        <v>69</v>
-      </c>
-      <c r="L49" t="s">
-        <v>70</v>
-      </c>
       <c r="M49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N49">
         <v>13.8919174559776</v>
@@ -4174,10 +4195,10 @@
         <v>0.6</v>
       </c>
       <c r="R49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T49">
         <v>0.03</v>
@@ -4194,37 +4215,37 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50">
         <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J50" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" t="s">
+        <v>68</v>
+      </c>
+      <c r="L50" t="s">
         <v>69</v>
       </c>
-      <c r="K50" t="s">
-        <v>69</v>
-      </c>
-      <c r="L50" t="s">
-        <v>70</v>
-      </c>
       <c r="M50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N50">
         <v>13.8919174559776</v>
@@ -4239,10 +4260,10 @@
         <v>0.6</v>
       </c>
       <c r="R50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T50">
         <v>0.03</v>
@@ -4259,37 +4280,37 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51">
         <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" t="s">
         <v>69</v>
       </c>
-      <c r="K51" t="s">
-        <v>69</v>
-      </c>
-      <c r="L51" t="s">
-        <v>70</v>
-      </c>
       <c r="M51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N51">
         <v>13.8919174559776</v>
@@ -4304,10 +4325,10 @@
         <v>0.6</v>
       </c>
       <c r="R51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T51">
         <v>0.03</v>
@@ -4324,37 +4345,37 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H52">
         <v>438</v>
       </c>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" t="s">
         <v>69</v>
       </c>
-      <c r="K52" t="s">
-        <v>69</v>
-      </c>
-      <c r="L52" t="s">
-        <v>70</v>
-      </c>
       <c r="M52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N52">
         <v>13.8919174559776</v>
@@ -4369,10 +4390,10 @@
         <v>0.6</v>
       </c>
       <c r="R52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T52">
         <v>0.03</v>
@@ -4389,37 +4410,37 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53">
         <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L53" t="s">
         <v>69</v>
       </c>
-      <c r="K53" t="s">
-        <v>69</v>
-      </c>
-      <c r="L53" t="s">
-        <v>70</v>
-      </c>
       <c r="M53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N53">
         <v>13.8919174559776</v>
@@ -4434,10 +4455,10 @@
         <v>0.6</v>
       </c>
       <c r="R53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T53">
         <v>0.03</v>
@@ -4454,37 +4475,37 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54">
         <v>438</v>
       </c>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" t="s">
         <v>69</v>
       </c>
-      <c r="K54" t="s">
-        <v>69</v>
-      </c>
-      <c r="L54" t="s">
-        <v>70</v>
-      </c>
       <c r="M54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N54">
         <v>13.8919174559776</v>
@@ -4499,10 +4520,10 @@
         <v>0.6</v>
       </c>
       <c r="R54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T54">
         <v>0.03</v>
@@ -4519,37 +4540,37 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55">
         <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J55" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55" t="s">
+        <v>68</v>
+      </c>
+      <c r="L55" t="s">
         <v>69</v>
       </c>
-      <c r="K55" t="s">
-        <v>69</v>
-      </c>
-      <c r="L55" t="s">
-        <v>70</v>
-      </c>
       <c r="M55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N55">
         <v>13.8919174559776</v>
@@ -4564,10 +4585,10 @@
         <v>0.6</v>
       </c>
       <c r="R55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T55">
         <v>0.03</v>
@@ -4584,37 +4605,37 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H56">
         <v>438</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J56" t="s">
+        <v>68</v>
+      </c>
+      <c r="K56" t="s">
+        <v>68</v>
+      </c>
+      <c r="L56" t="s">
         <v>69</v>
       </c>
-      <c r="K56" t="s">
-        <v>69</v>
-      </c>
-      <c r="L56" t="s">
-        <v>70</v>
-      </c>
       <c r="M56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N56">
         <v>13.8919174559776</v>
@@ -4629,10 +4650,10 @@
         <v>0.6</v>
       </c>
       <c r="R56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T56">
         <v>0.03</v>
@@ -4649,37 +4670,37 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57">
         <v>438</v>
       </c>
       <c r="I57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J57" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" t="s">
         <v>69</v>
       </c>
-      <c r="K57" t="s">
-        <v>69</v>
-      </c>
-      <c r="L57" t="s">
-        <v>70</v>
-      </c>
       <c r="M57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N57">
         <v>13.8919174559776</v>
@@ -4694,10 +4715,10 @@
         <v>0.6</v>
       </c>
       <c r="R57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T57">
         <v>0.03</v>
@@ -4714,37 +4735,37 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58">
         <v>438</v>
       </c>
       <c r="I58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J58" t="s">
+        <v>68</v>
+      </c>
+      <c r="K58" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" t="s">
         <v>69</v>
       </c>
-      <c r="K58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L58" t="s">
-        <v>70</v>
-      </c>
       <c r="M58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N58">
         <v>13.8919174559776</v>
@@ -4759,10 +4780,10 @@
         <v>0.6</v>
       </c>
       <c r="R58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T58">
         <v>0.03</v>
@@ -4779,37 +4800,37 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H59">
         <v>438</v>
       </c>
       <c r="I59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
+        <v>68</v>
+      </c>
+      <c r="K59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" t="s">
         <v>69</v>
       </c>
-      <c r="K59" t="s">
-        <v>69</v>
-      </c>
-      <c r="L59" t="s">
-        <v>70</v>
-      </c>
       <c r="M59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N59">
         <v>13.8919174559776</v>
@@ -4824,10 +4845,10 @@
         <v>0.6</v>
       </c>
       <c r="R59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T59">
         <v>0.03</v>
@@ -4844,37 +4865,37 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H60">
         <v>438</v>
       </c>
       <c r="I60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J60" t="s">
+        <v>68</v>
+      </c>
+      <c r="K60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
         <v>69</v>
       </c>
-      <c r="K60" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60" t="s">
-        <v>70</v>
-      </c>
       <c r="M60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N60">
         <v>13.8919174559776</v>
@@ -4889,10 +4910,10 @@
         <v>0.6</v>
       </c>
       <c r="R60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T60">
         <v>0.03</v>

--- a/output/experiments/Aug2023_2/disturbance_sensitive.xlsx
+++ b/output/experiments/Aug2023_2/disturbance_sensitive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="113">
   <si>
     <t>status</t>
   </si>
@@ -187,6 +187,9 @@
     <t>R</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -208,15 +211,15 @@
     <t>GT</t>
   </si>
   <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
     <t>Prediction</t>
   </si>
   <si>
-    <t>Simple</t>
-  </si>
-  <si>
-    <t>Naive</t>
-  </si>
-  <si>
     <t>Disturbance</t>
   </si>
   <si>
@@ -262,6 +265,33 @@
     <t>uniform_neg</t>
   </si>
   <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-439-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-440-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-441-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-442-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-443-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-444-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-445-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-446-unconscious-04-01-04-02-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
     <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
   </si>
   <si>
@@ -272,6 +302,48 @@
   </si>
   <si>
     <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-04-01-04-08-Sum-ALL-Sum-nan-nan-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.01-uniform-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.02-uniform-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.03-uniform-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.04-uniform-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.05-uniform-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.01-uniform_pos-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.02-uniform_pos-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.03-uniform_pos-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.04-uniform_pos-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.05-uniform_pos-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.01-uniform_neg-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.02-uniform_neg-2023-08-23_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-08-Sum-ALL-Sum-0.03-uniform_neg-2023-08-23_001.xlsx</t>
   </si>
   <si>
     <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-04-01-04-02-Sum-ALL-Sum-0.0-0.03-uniform-2023-08-23_001.xlsx</t>
@@ -638,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD60"/>
+  <dimension ref="A1:BD69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,37 +894,37 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2">
         <v>13.6937916219119</v>
@@ -867,57 +939,57 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I3" t="s">
         <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3">
-        <v>13.8919174559776</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O3">
         <v>1.5</v>
@@ -929,57 +1001,57 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H4">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4">
-        <v>14.0900432900433</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O4">
         <v>1.5</v>
@@ -991,57 +1063,153 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>293.5084544048598</v>
+      </c>
+      <c r="W4">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X4">
+        <v>134.8741193</v>
+      </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="Z4">
+        <v>293.5084544048598</v>
+      </c>
+      <c r="AA4">
+        <v>275.4262626240379</v>
+      </c>
+      <c r="AB4">
+        <v>18.08219178082192</v>
+      </c>
+      <c r="AC4">
+        <v>18.08219178082192</v>
+      </c>
+      <c r="AD4">
+        <v>440</v>
+      </c>
+      <c r="AE4">
+        <v>5.223739642217825</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0.108258504140861</v>
+      </c>
+      <c r="AI4">
+        <v>0.108258504140861</v>
+      </c>
+      <c r="AJ4">
+        <v>0.1015890164160552</v>
+      </c>
+      <c r="AL4">
+        <v>57.41713284439307</v>
+      </c>
+      <c r="AM4">
+        <v>221.7195033629468</v>
+      </c>
+      <c r="AO4">
+        <v>73.76842105263158</v>
+      </c>
+      <c r="AP4">
+        <v>2021.540261052631</v>
+      </c>
+      <c r="AQ4">
+        <v>689.6412459720735</v>
+      </c>
+      <c r="AR4">
+        <v>2711.181507024705</v>
+      </c>
+      <c r="AS4">
+        <v>1186.400532720328</v>
+      </c>
+      <c r="AT4">
+        <v>1564.140372822431</v>
+      </c>
+      <c r="AU4">
+        <v>7.180221329786276E-15</v>
+      </c>
+      <c r="AV4">
+        <v>221.7195033629468</v>
+      </c>
+      <c r="AW4">
+        <v>1.266591042574299E-15</v>
+      </c>
+      <c r="AX4">
+        <v>95.69522140732177</v>
+      </c>
+      <c r="AY4">
+        <v>21.86092101300445</v>
+      </c>
+      <c r="AZ4">
+        <v>3.710373583301934</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N5">
-        <v>14.288169124109</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O5">
         <v>1.5</v>
@@ -1053,30 +1221,30 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -1085,25 +1253,25 @@
         <v>62</v>
       </c>
       <c r="H6">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N6">
-        <v>14.4862949581747</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1119,50 +1287,53 @@
       </c>
       <c r="U6">
         <v>0</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:56">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N7">
-        <v>13.8919174559776</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -1174,60 +1345,57 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7">
-        <v>0.01</v>
+        <v>78</v>
       </c>
       <c r="U7">
         <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:56">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N8">
-        <v>13.8919174559776</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O8">
         <v>1.5</v>
@@ -1239,15 +1407,108 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8">
-        <v>0.02</v>
+        <v>78</v>
       </c>
       <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>293.992945792909</v>
+      </c>
+      <c r="W8">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X8">
+        <v>139.122498</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z8">
+        <v>293.992945792909</v>
+      </c>
+      <c r="AA8">
+        <v>275.7463704504433</v>
+      </c>
+      <c r="AB8">
+        <v>18.24657534246575</v>
+      </c>
+      <c r="AC8">
+        <v>18.24657534246575</v>
+      </c>
+      <c r="AD8">
+        <v>444</v>
+      </c>
+      <c r="AE8">
+        <v>5.271228184419805</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0.1084372053406125</v>
+      </c>
+      <c r="AI8">
+        <v>0.1084372053406125</v>
+      </c>
+      <c r="AJ8">
+        <v>0.1017070859092175</v>
+      </c>
+      <c r="AL8">
+        <v>57.8091838518279</v>
+      </c>
+      <c r="AM8">
+        <v>220.9621912252232</v>
+      </c>
+      <c r="AO8">
+        <v>73.76842105263158</v>
+      </c>
+      <c r="AP8">
+        <v>2021.540261052631</v>
+      </c>
+      <c r="AQ8">
+        <v>689.641245972073</v>
+      </c>
+      <c r="AR8">
+        <v>2711.181507024704</v>
+      </c>
+      <c r="AS8">
+        <v>1186.400532720328</v>
+      </c>
+      <c r="AT8">
+        <v>1560.039844564136</v>
+      </c>
+      <c r="AU8">
+        <v>3.590110664893138E-15</v>
+      </c>
+      <c r="AV8">
+        <v>220.9621912252232</v>
+      </c>
+      <c r="AW8">
+        <v>6.332955212871494E-16</v>
+      </c>
+      <c r="AX8">
+        <v>96.34863975304651</v>
+      </c>
+      <c r="AY8">
+        <v>17.82283797616856</v>
+      </c>
+      <c r="AZ8">
+        <v>3.025004626607808</v>
+      </c>
+      <c r="BA8">
+        <v>-10.08038781837131</v>
+      </c>
+      <c r="BB8">
+        <v>7.046664400953034</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
         <v>0</v>
       </c>
     </row>
@@ -1255,44 +1516,44 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N9">
-        <v>13.8919174559776</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1304,15 +1565,108 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9">
-        <v>0.03</v>
+        <v>78</v>
       </c>
       <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>294.3354522982776</v>
+      </c>
+      <c r="W9">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X9">
+        <v>75.21003640000001</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z9">
+        <v>294.3354522982776</v>
+      </c>
+      <c r="AA9">
+        <v>276.0477810654009</v>
+      </c>
+      <c r="AB9">
+        <v>18.28767123287671</v>
+      </c>
+      <c r="AC9">
+        <v>18.28767123287671</v>
+      </c>
+      <c r="AD9">
+        <v>445</v>
+      </c>
+      <c r="AE9">
+        <v>5.2831003199703</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0.108563536427071</v>
+      </c>
+      <c r="AI9">
+        <v>0.108563536427071</v>
+      </c>
+      <c r="AJ9">
+        <v>0.1018182590690287</v>
+      </c>
+      <c r="AL9">
+        <v>57.78920918635591</v>
+      </c>
+      <c r="AM9">
+        <v>221.2760571868315</v>
+      </c>
+      <c r="AO9">
+        <v>73.76842105263158</v>
+      </c>
+      <c r="AP9">
+        <v>2021.540261052631</v>
+      </c>
+      <c r="AQ9">
+        <v>689.641245972073</v>
+      </c>
+      <c r="AR9">
+        <v>2711.181507024704</v>
+      </c>
+      <c r="AS9">
+        <v>1186.400532720328</v>
+      </c>
+      <c r="AT9">
+        <v>1560.101870578158</v>
+      </c>
+      <c r="AU9">
+        <v>3.590110664893138E-15</v>
+      </c>
+      <c r="AV9">
+        <v>221.2760571868315</v>
+      </c>
+      <c r="AW9">
+        <v>6.332955212871494E-16</v>
+      </c>
+      <c r="AX9">
+        <v>96.31534864392651</v>
+      </c>
+      <c r="AY9">
+        <v>17.77853536589666</v>
+      </c>
+      <c r="AZ9">
+        <v>3.017485307786501</v>
+      </c>
+      <c r="BA9">
+        <v>-10.08038781837131</v>
+      </c>
+      <c r="BB9">
+        <v>7.046664400953034</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
         <v>0</v>
       </c>
     </row>
@@ -1320,44 +1674,44 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N10">
-        <v>13.8919174559776</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O10">
         <v>1.5</v>
@@ -1369,15 +1723,108 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>77</v>
-      </c>
-      <c r="S10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10">
-        <v>0.04</v>
+        <v>78</v>
       </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>305.1402265907371</v>
+      </c>
+      <c r="W10">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X10">
+        <v>74.62583110000003</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z10">
+        <v>305.1402265907371</v>
+      </c>
+      <c r="AA10">
+        <v>286.8114594674495</v>
+      </c>
+      <c r="AB10">
+        <v>18.32876712328767</v>
+      </c>
+      <c r="AC10">
+        <v>18.32876712328767</v>
+      </c>
+      <c r="AD10">
+        <v>446</v>
+      </c>
+      <c r="AE10">
+        <v>5.294972455520796</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0.1125488005137668</v>
+      </c>
+      <c r="AI10">
+        <v>0.1125488005137668</v>
+      </c>
+      <c r="AJ10">
+        <v>0.1057883652290773</v>
+      </c>
+      <c r="AL10">
+        <v>67.7146871705739</v>
+      </c>
+      <c r="AM10">
+        <v>224.6376321980279</v>
+      </c>
+      <c r="AO10">
+        <v>73.76842105263158</v>
+      </c>
+      <c r="AP10">
+        <v>2021.540261052631</v>
+      </c>
+      <c r="AQ10">
+        <v>689.6412459720729</v>
+      </c>
+      <c r="AR10">
+        <v>2711.181507024704</v>
+      </c>
+      <c r="AS10">
+        <v>1186.400532720328</v>
+      </c>
+      <c r="AT10">
+        <v>1567.330797506315</v>
+      </c>
+      <c r="AU10">
+        <v>0.2014736842105265</v>
+      </c>
+      <c r="AV10">
+        <v>224.6595122401332</v>
+      </c>
+      <c r="AW10">
+        <v>0.02188004210526318</v>
+      </c>
+      <c r="AX10">
+        <v>112.8578119509565</v>
+      </c>
+      <c r="AY10">
+        <v>32.64585032308792</v>
+      </c>
+      <c r="AZ10">
+        <v>5.54085990115231</v>
+      </c>
+      <c r="BA10">
+        <v>-14.05309999999999</v>
+      </c>
+      <c r="BB10">
+        <v>10.53909999999999</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
         <v>0</v>
       </c>
     </row>
@@ -1385,44 +1832,44 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N11">
-        <v>13.8919174559776</v>
+        <v>13.6937916219119</v>
       </c>
       <c r="O11">
         <v>1.5</v>
@@ -1434,15 +1881,108 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11">
-        <v>0.05</v>
+        <v>78</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>276.4003047708896</v>
+      </c>
+      <c r="W11">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X11">
+        <v>196.3965289</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11">
+        <v>276.4003047708896</v>
+      </c>
+      <c r="AA11">
+        <v>258.4003047708896</v>
+      </c>
+      <c r="AB11">
+        <v>18</v>
+      </c>
+      <c r="AC11">
+        <v>18</v>
+      </c>
+      <c r="AD11">
+        <v>438</v>
+      </c>
+      <c r="AE11">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0.1151664334122242</v>
+      </c>
+      <c r="AI11">
+        <v>0.1151664334122242</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1076664568722621</v>
+      </c>
+      <c r="AL11">
+        <v>69.89826803153574</v>
+      </c>
+      <c r="AM11">
+        <v>188.5020367393539</v>
+      </c>
+      <c r="AO11">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP11">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ11">
+        <v>495.2592962073058</v>
+      </c>
+      <c r="AR11">
+        <v>2400.007507235624</v>
+      </c>
+      <c r="AS11">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT11">
+        <v>1363.922778852042</v>
+      </c>
+      <c r="AU11">
+        <v>14.51249187432573</v>
+      </c>
+      <c r="AV11">
+        <v>190.644507335793</v>
+      </c>
+      <c r="AW11">
+        <v>2.142470596439106</v>
+      </c>
+      <c r="AX11">
+        <v>116.4971133858929</v>
+      </c>
+      <c r="AY11">
+        <v>3.552713678800501E-15</v>
+      </c>
+      <c r="AZ11">
+        <v>6.024258753709678E-16</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
         <v>0</v>
       </c>
     </row>
@@ -1450,23 +1990,23 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>438</v>
@@ -1475,16 +2015,16 @@
         <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N12">
         <v>13.8919174559776</v>
@@ -1499,15 +2039,108 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s">
-        <v>80</v>
-      </c>
-      <c r="T12">
-        <v>0.01</v>
+        <v>78</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>276.2716660570846</v>
+      </c>
+      <c r="W12">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X12">
+        <v>197.9997985</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12">
+        <v>276.2716660570846</v>
+      </c>
+      <c r="AA12">
+        <v>258.2716660570846</v>
+      </c>
+      <c r="AB12">
+        <v>18</v>
+      </c>
+      <c r="AC12">
+        <v>18</v>
+      </c>
+      <c r="AD12">
+        <v>438</v>
+      </c>
+      <c r="AE12">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0.1151128341157982</v>
+      </c>
+      <c r="AI12">
+        <v>0.1151128341157982</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1076128575758361</v>
+      </c>
+      <c r="AL12">
+        <v>72.33097940775525</v>
+      </c>
+      <c r="AM12">
+        <v>185.9406866493294</v>
+      </c>
+      <c r="AO12">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP12">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ12">
+        <v>495.2592962073055</v>
+      </c>
+      <c r="AR12">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS12">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT12">
+        <v>1361.76187924567</v>
+      </c>
+      <c r="AU12">
+        <v>14.98605360386468</v>
+      </c>
+      <c r="AV12">
+        <v>188.2026607335219</v>
+      </c>
+      <c r="AW12">
+        <v>2.261974084192548</v>
+      </c>
+      <c r="AX12">
+        <v>120.5516323462588</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>-17.7250406</v>
+      </c>
+      <c r="BB12">
+        <v>3.672677500000006</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
         <v>0</v>
       </c>
     </row>
@@ -1515,44 +2148,44 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N13">
-        <v>13.8919174559776</v>
+        <v>14.0900432900433</v>
       </c>
       <c r="O13">
         <v>1.5</v>
@@ -1564,15 +2197,108 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s">
-        <v>80</v>
-      </c>
-      <c r="T13">
-        <v>0.02</v>
+        <v>78</v>
       </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>279.7356432070403</v>
+      </c>
+      <c r="W13">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X13">
+        <v>364.9068467</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z13">
+        <v>279.7356432070403</v>
+      </c>
+      <c r="AA13">
+        <v>261.7356432070403</v>
+      </c>
+      <c r="AB13">
+        <v>18</v>
+      </c>
+      <c r="AC13">
+        <v>18</v>
+      </c>
+      <c r="AD13">
+        <v>438</v>
+      </c>
+      <c r="AE13">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0.1165561534135555</v>
+      </c>
+      <c r="AI13">
+        <v>0.1165561534135555</v>
+      </c>
+      <c r="AJ13">
+        <v>0.1090561768735935</v>
+      </c>
+      <c r="AL13">
+        <v>73.83051935021886</v>
+      </c>
+      <c r="AM13">
+        <v>187.9051238568215</v>
+      </c>
+      <c r="AO13">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP13">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ13">
+        <v>495.2592962073059</v>
+      </c>
+      <c r="AR13">
+        <v>2400.007507235624</v>
+      </c>
+      <c r="AS13">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT13">
+        <v>1367.607761188778</v>
+      </c>
+      <c r="AU13">
+        <v>18.34153917358276</v>
+      </c>
+      <c r="AV13">
+        <v>190.7094898314178</v>
+      </c>
+      <c r="AW13">
+        <v>2.8043659745963</v>
+      </c>
+      <c r="AX13">
+        <v>123.0508655836981</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>-11.21618234925955</v>
+      </c>
+      <c r="BB13">
+        <v>9.623841850552154</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
         <v>0</v>
       </c>
     </row>
@@ -1580,44 +2306,44 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N14">
-        <v>13.8919174559776</v>
+        <v>14.288169124109</v>
       </c>
       <c r="O14">
         <v>1.5</v>
@@ -1629,15 +2355,108 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T14">
-        <v>0.03</v>
+        <v>78</v>
       </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>294.5680181095381</v>
+      </c>
+      <c r="W14">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X14">
+        <v>363.5913654</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z14">
+        <v>294.5680181095381</v>
+      </c>
+      <c r="AA14">
+        <v>276.5680181095381</v>
+      </c>
+      <c r="AB14">
+        <v>18</v>
+      </c>
+      <c r="AC14">
+        <v>18</v>
+      </c>
+      <c r="AD14">
+        <v>438</v>
+      </c>
+      <c r="AE14">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0.1227362902913697</v>
+      </c>
+      <c r="AI14">
+        <v>0.1227362902913697</v>
+      </c>
+      <c r="AJ14">
+        <v>0.1152363137514076</v>
+      </c>
+      <c r="AL14">
+        <v>90.72644788303812</v>
+      </c>
+      <c r="AM14">
+        <v>185.8415702265</v>
+      </c>
+      <c r="AO14">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP14">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ14">
+        <v>495.2592962073057</v>
+      </c>
+      <c r="AR14">
+        <v>2400.007507235624</v>
+      </c>
+      <c r="AS14">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT14">
+        <v>1368.07459987081</v>
+      </c>
+      <c r="AU14">
+        <v>20.18231352123512</v>
+      </c>
+      <c r="AV14">
+        <v>188.8758004814542</v>
+      </c>
+      <c r="AW14">
+        <v>3.034230254954272</v>
+      </c>
+      <c r="AX14">
+        <v>151.2107464717302</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>-14.27050000000001</v>
+      </c>
+      <c r="BB14">
+        <v>14.38379999999999</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
         <v>0</v>
       </c>
     </row>
@@ -1645,44 +2464,44 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N15">
-        <v>13.8919174559776</v>
+        <v>14.4862949581747</v>
       </c>
       <c r="O15">
         <v>1.5</v>
@@ -1694,15 +2513,108 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>77</v>
-      </c>
-      <c r="S15" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15">
-        <v>0.04</v>
+        <v>79</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>354.2205894314187</v>
+      </c>
+      <c r="W15">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X15">
+        <v>69.15377390000003</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z15">
+        <v>354.2205894314187</v>
+      </c>
+      <c r="AA15">
+        <v>336.2205894314187</v>
+      </c>
+      <c r="AB15">
+        <v>18</v>
+      </c>
+      <c r="AC15">
+        <v>18</v>
+      </c>
+      <c r="AD15">
+        <v>438</v>
+      </c>
+      <c r="AE15">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0.1475519451387247</v>
+      </c>
+      <c r="AI15">
+        <v>0.1475519451387247</v>
+      </c>
+      <c r="AJ15">
+        <v>0.1400539760998265</v>
+      </c>
+      <c r="AL15">
+        <v>95.56312174796162</v>
+      </c>
+      <c r="AM15">
+        <v>240.6574676834571</v>
+      </c>
+      <c r="AO15">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP15">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ15">
+        <v>495.9018725635272</v>
+      </c>
+      <c r="AR15">
+        <v>2400.650083591845</v>
+      </c>
+      <c r="AS15">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT15">
+        <v>1342.906787930286</v>
+      </c>
+      <c r="AU15">
+        <v>10.92675223098101</v>
+      </c>
+      <c r="AV15">
+        <v>241.7041374036727</v>
+      </c>
+      <c r="AW15">
+        <v>1.046669720215633</v>
+      </c>
+      <c r="AX15">
+        <v>159.271869579936</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
         <v>0</v>
       </c>
     </row>
@@ -1710,41 +2622,41 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>13.8919174559776</v>
@@ -1759,57 +2671,60 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s">
         <v>80</v>
       </c>
       <c r="T16">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="U16">
         <v>0</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>13.8919174559776</v>
@@ -1824,15 +2739,114 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T17">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>277.0887006158532</v>
+      </c>
+      <c r="W17">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X17">
+        <v>389.5766953000002</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z17">
+        <v>277.0887006158532</v>
+      </c>
+      <c r="AA17">
+        <v>259.0887006158532</v>
+      </c>
+      <c r="AB17">
+        <v>18</v>
+      </c>
+      <c r="AC17">
+        <v>18</v>
+      </c>
+      <c r="AD17">
+        <v>438</v>
+      </c>
+      <c r="AE17">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0.1154532641170817</v>
+      </c>
+      <c r="AI17">
+        <v>0.1154532641170817</v>
+      </c>
+      <c r="AJ17">
+        <v>0.1079532875771196</v>
+      </c>
+      <c r="AL17">
+        <v>70.53325030927641</v>
+      </c>
+      <c r="AM17">
+        <v>188.5554503065768</v>
+      </c>
+      <c r="AO17">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP17">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ17">
+        <v>495.2592962073053</v>
+      </c>
+      <c r="AR17">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS17">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT17">
+        <v>1363.856171877735</v>
+      </c>
+      <c r="AU17">
+        <v>14.87429427386714</v>
+      </c>
+      <c r="AV17">
+        <v>190.7384183056056</v>
+      </c>
+      <c r="AW17">
+        <v>2.182967999028819</v>
+      </c>
+      <c r="AX17">
+        <v>117.5554171821273</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>-3.863934181030587</v>
+      </c>
+      <c r="BB17">
+        <v>3.809742967430125</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
         <v>0</v>
       </c>
     </row>
@@ -1840,41 +2854,41 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>13.8919174559776</v>
@@ -1889,15 +2903,114 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T18">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>277.1724928441452</v>
+      </c>
+      <c r="W18">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X18">
+        <v>407.1818327000001</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z18">
+        <v>277.1724928441452</v>
+      </c>
+      <c r="AA18">
+        <v>259.1724928441452</v>
+      </c>
+      <c r="AB18">
+        <v>18</v>
+      </c>
+      <c r="AC18">
+        <v>18</v>
+      </c>
+      <c r="AD18">
+        <v>438</v>
+      </c>
+      <c r="AE18">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0.1154881774363273</v>
+      </c>
+      <c r="AI18">
+        <v>0.1154881774363273</v>
+      </c>
+      <c r="AJ18">
+        <v>0.1079882008963652</v>
+      </c>
+      <c r="AL18">
+        <v>70.9361175381827</v>
+      </c>
+      <c r="AM18">
+        <v>188.2363753059625</v>
+      </c>
+      <c r="AO18">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP18">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ18">
+        <v>495.2592962073056</v>
+      </c>
+      <c r="AR18">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS18">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT18">
+        <v>1363.291467491081</v>
+      </c>
+      <c r="AU18">
+        <v>14.1418379436827</v>
+      </c>
+      <c r="AV18">
+        <v>190.2976501354267</v>
+      </c>
+      <c r="AW18">
+        <v>2.061274829464217</v>
+      </c>
+      <c r="AX18">
+        <v>118.2268625636379</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>-6.016133205714397</v>
+      </c>
+      <c r="BB18">
+        <v>5.709011679419504</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
         <v>0</v>
       </c>
     </row>
@@ -1905,41 +3018,41 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N19">
         <v>13.8919174559776</v>
@@ -1954,15 +3067,114 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T19">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>277.1665064393765</v>
+      </c>
+      <c r="W19">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X19">
+        <v>401.9322778999995</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z19">
+        <v>277.1665064393765</v>
+      </c>
+      <c r="AA19">
+        <v>259.1665064393765</v>
+      </c>
+      <c r="AB19">
+        <v>18</v>
+      </c>
+      <c r="AC19">
+        <v>18</v>
+      </c>
+      <c r="AD19">
+        <v>438</v>
+      </c>
+      <c r="AE19">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0.1154856831088093</v>
+      </c>
+      <c r="AI19">
+        <v>0.1154856831088093</v>
+      </c>
+      <c r="AJ19">
+        <v>0.1079857065688472</v>
+      </c>
+      <c r="AL19">
+        <v>70.541049923586</v>
+      </c>
+      <c r="AM19">
+        <v>188.6254565157904</v>
+      </c>
+      <c r="AO19">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP19">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ19">
+        <v>495.2592962073059</v>
+      </c>
+      <c r="AR19">
+        <v>2400.007507235624</v>
+      </c>
+      <c r="AS19">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT19">
+        <v>1362.040355905981</v>
+      </c>
+      <c r="AU19">
+        <v>13.76594191377924</v>
+      </c>
+      <c r="AV19">
+        <v>190.6215615263854</v>
+      </c>
+      <c r="AW19">
+        <v>1.99610501059502</v>
+      </c>
+      <c r="AX19">
+        <v>117.56841653931</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>-7.834235674111468</v>
+      </c>
+      <c r="BB19">
+        <v>7.841705424510621</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
         <v>0</v>
       </c>
     </row>
@@ -1970,41 +3182,41 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N20">
         <v>13.8919174559776</v>
@@ -2019,15 +3231,114 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>276.9232725510481</v>
+      </c>
+      <c r="W20">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X20">
+        <v>410.0668392999996</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20">
+        <v>276.9232725510481</v>
+      </c>
+      <c r="AA20">
+        <v>258.9232725510481</v>
+      </c>
+      <c r="AB20">
+        <v>18</v>
+      </c>
+      <c r="AC20">
+        <v>18</v>
+      </c>
+      <c r="AD20">
+        <v>438</v>
+      </c>
+      <c r="AE20">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0.1153843359723545</v>
+      </c>
+      <c r="AI20">
+        <v>0.1153843359723545</v>
+      </c>
+      <c r="AJ20">
+        <v>0.1078843594323924</v>
+      </c>
+      <c r="AL20">
+        <v>70.11714497544665</v>
+      </c>
+      <c r="AM20">
+        <v>188.8061275756014</v>
+      </c>
+      <c r="AO20">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP20">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ20">
+        <v>495.2592962073054</v>
+      </c>
+      <c r="AR20">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS20">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT20">
+        <v>1362.617927650555</v>
+      </c>
+      <c r="AU20">
+        <v>14.74144887162311</v>
+      </c>
+      <c r="AV20">
+        <v>190.9533733348374</v>
+      </c>
+      <c r="AW20">
+        <v>2.147245759235904</v>
+      </c>
+      <c r="AX20">
+        <v>116.8619082924111</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>-9.65548001880768</v>
+      </c>
+      <c r="BB20">
+        <v>9.979940809838524</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
         <v>0</v>
       </c>
     </row>
@@ -2035,41 +3346,41 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N21">
         <v>13.8919174559776</v>
@@ -2084,15 +3395,114 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s">
         <v>81</v>
       </c>
       <c r="T21">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>276.9088212172946</v>
+      </c>
+      <c r="W21">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X21">
+        <v>405.8527855999992</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z21">
+        <v>276.9088212172946</v>
+      </c>
+      <c r="AA21">
+        <v>258.9088212172946</v>
+      </c>
+      <c r="AB21">
+        <v>18</v>
+      </c>
+      <c r="AC21">
+        <v>18</v>
+      </c>
+      <c r="AD21">
+        <v>438</v>
+      </c>
+      <c r="AE21">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0.1153783146021255</v>
+      </c>
+      <c r="AI21">
+        <v>0.1153783146021255</v>
+      </c>
+      <c r="AJ21">
+        <v>0.1078783380621634</v>
+      </c>
+      <c r="AL21">
+        <v>70.33738537517418</v>
+      </c>
+      <c r="AM21">
+        <v>188.5714358421205</v>
+      </c>
+      <c r="AO21">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP21">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ21">
+        <v>495.2592962073056</v>
+      </c>
+      <c r="AR21">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS21">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT21">
+        <v>1363.924544886514</v>
+      </c>
+      <c r="AU21">
+        <v>14.34994601888075</v>
+      </c>
+      <c r="AV21">
+        <v>190.6572242629019</v>
+      </c>
+      <c r="AW21">
+        <v>2.085788420781457</v>
+      </c>
+      <c r="AX21">
+        <v>117.2289756252903</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>1.977562458734752</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
         <v>0</v>
       </c>
     </row>
@@ -2100,41 +3510,41 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N22">
         <v>13.8919174559776</v>
@@ -2149,34 +3559,34 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T22">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>308.32739559151</v>
+        <v>277.7559876886792</v>
       </c>
       <c r="W22">
-        <v>0.9895833333333334</v>
+        <v>6.989583333333333</v>
       </c>
       <c r="X22">
-        <v>55.5172135</v>
+        <v>399.5282276999997</v>
       </c>
       <c r="Y22" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="Z22">
-        <v>308.32739559151</v>
+        <v>277.7559876886792</v>
       </c>
       <c r="AA22">
-        <v>290.32739559151</v>
+        <v>259.7559876886792</v>
       </c>
       <c r="AB22">
         <v>18</v>
@@ -2188,7 +3598,7 @@
         <v>438</v>
       </c>
       <c r="AE22">
-        <v>5.199995371116835</v>
+        <v>5.518839676098123</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2197,49 +3607,49 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>0.1139650719739834</v>
+        <v>0.1157312995277269</v>
       </c>
       <c r="AI22">
-        <v>0.1139650719739834</v>
+        <v>0.1157312995277269</v>
       </c>
       <c r="AJ22">
-        <v>0.1073118477556285</v>
+        <v>0.1082313229877649</v>
       </c>
       <c r="AL22">
-        <v>75.62368457981356</v>
+        <v>71.16491719683007</v>
       </c>
       <c r="AM22">
-        <v>214.7037110116964</v>
+        <v>188.5910704918491</v>
       </c>
       <c r="AO22">
-        <v>73.76842105263158</v>
+        <v>55.65424739195231</v>
       </c>
       <c r="AP22">
-        <v>2021.540261052631</v>
+        <v>1904.748211028318</v>
       </c>
       <c r="AQ22">
-        <v>683.9149301825994</v>
+        <v>495.2592962073055</v>
       </c>
       <c r="AR22">
-        <v>2705.455191235231</v>
+        <v>2400.007507235623</v>
       </c>
       <c r="AS22">
-        <v>1186.400532720328</v>
+        <v>1074.088586852481</v>
       </c>
       <c r="AT22">
-        <v>1546.673888037637</v>
+        <v>1364.014547499883</v>
       </c>
       <c r="AU22">
-        <v>10.11465578420223</v>
+        <v>13.90663490624001</v>
       </c>
       <c r="AV22">
-        <v>216.060277888947</v>
+        <v>190.5803054908686</v>
       </c>
       <c r="AW22">
-        <v>1.356566877250631</v>
+        <v>1.989234999019532</v>
       </c>
       <c r="AX22">
-        <v>126.0394742996893</v>
+        <v>118.6081953280501</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -2248,7 +3658,10 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>-5.616264940387126</v>
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>3.930584921252873</v>
       </c>
       <c r="BC22">
         <v>0</v>
@@ -2261,41 +3674,41 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
         <v>70</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N23">
         <v>13.8919174559776</v>
@@ -2310,10 +3723,10 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T23">
         <v>0.03</v>
@@ -2322,22 +3735,22 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>303.880780539529</v>
+        <v>278.0069855945521</v>
       </c>
       <c r="W23">
-        <v>0.9895833333333334</v>
+        <v>6.989583333333333</v>
       </c>
       <c r="X23">
-        <v>50.2103266</v>
+        <v>409.2993514999998</v>
       </c>
       <c r="Y23" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="Z23">
-        <v>303.880780539529</v>
+        <v>278.0069855945521</v>
       </c>
       <c r="AA23">
-        <v>285.880780539529</v>
+        <v>260.0069855945521</v>
       </c>
       <c r="AB23">
         <v>18</v>
@@ -2349,7 +3762,7 @@
         <v>438</v>
       </c>
       <c r="AE23">
-        <v>5.220297953680841</v>
+        <v>5.518839676098123</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2358,58 +3771,61 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0.1139716197697591</v>
+        <v>0.1158358816613728</v>
       </c>
       <c r="AI23">
-        <v>0.1139716197697591</v>
+        <v>0.1158358816613728</v>
       </c>
       <c r="AJ23">
-        <v>0.1072206526562308</v>
+        <v>0.1083359051214108</v>
       </c>
       <c r="AL23">
-        <v>71.21225451943941</v>
+        <v>71.27625692963262</v>
       </c>
       <c r="AM23">
-        <v>214.6685260200896</v>
+        <v>188.7307286649195</v>
       </c>
       <c r="AO23">
-        <v>76.8</v>
+        <v>55.65424739195231</v>
       </c>
       <c r="AP23">
-        <v>2013.678164210526</v>
+        <v>1904.748211028318</v>
       </c>
       <c r="AQ23">
-        <v>652.6064876476909</v>
+        <v>495.2592962073058</v>
       </c>
       <c r="AR23">
-        <v>2666.284651858216</v>
+        <v>2400.007507235624</v>
       </c>
       <c r="AS23">
-        <v>1127.424503860149</v>
+        <v>1074.088586852481</v>
       </c>
       <c r="AT23">
-        <v>1570.506672107378</v>
+        <v>1363.22974463382</v>
       </c>
       <c r="AU23">
-        <v>13.82000970903989</v>
+        <v>13.24071399317597</v>
       </c>
       <c r="AV23">
-        <v>216.5764629569829</v>
+        <v>190.5652630448809</v>
       </c>
       <c r="AW23">
-        <v>1.907936936893227</v>
+        <v>1.834534379961369</v>
       </c>
       <c r="AX23">
-        <v>118.6870908657324</v>
+        <v>118.7937615493877</v>
       </c>
       <c r="AY23">
-        <v>0</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="AZ23">
-        <v>0</v>
+        <v>1.50606468842742E-16</v>
       </c>
       <c r="BA23">
-        <v>-5.382015366902891</v>
+        <v>0</v>
+      </c>
+      <c r="BB23">
+        <v>5.991819294446657</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -2422,41 +3838,41 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="N24">
         <v>13.8919174559776</v>
@@ -2471,34 +3887,34 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T24">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>307.2270504981099</v>
+        <v>279.0243130130654</v>
       </c>
       <c r="W24">
-        <v>0.9895833333333334</v>
+        <v>6.989583333333333</v>
       </c>
       <c r="X24">
-        <v>47.7376292</v>
+        <v>409.8728443</v>
       </c>
       <c r="Y24" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Z24">
-        <v>307.2270504981099</v>
+        <v>279.0243130130654</v>
       </c>
       <c r="AA24">
-        <v>289.2270504981099</v>
+        <v>261.0243130130654</v>
       </c>
       <c r="AB24">
         <v>18</v>
@@ -2510,7 +3926,7 @@
         <v>438</v>
       </c>
       <c r="AE24">
-        <v>5.17858578982618</v>
+        <v>5.518839676098123</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2519,61 +3935,61 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0.1179860056946603</v>
+        <v>0.1162597667598345</v>
       </c>
       <c r="AI24">
-        <v>0.1179860056946603</v>
+        <v>0.1162597667598345</v>
       </c>
       <c r="AJ24">
-        <v>0.1110733718655081</v>
+        <v>0.1087597902198724</v>
       </c>
       <c r="AL24">
-        <v>73.97257635431858</v>
+        <v>72.32433491745307</v>
       </c>
       <c r="AM24">
-        <v>223.1339831050423</v>
+        <v>188.6999780956124</v>
       </c>
       <c r="AO24">
-        <v>71.74736842105263</v>
+        <v>55.65424739195231</v>
       </c>
       <c r="AP24">
-        <v>2029.897818947369</v>
+        <v>1904.748211028318</v>
       </c>
       <c r="AQ24">
-        <v>574.0300680021439</v>
+        <v>495.2592962073058</v>
       </c>
       <c r="AR24">
-        <v>2603.927886949513</v>
+        <v>2400.007507235624</v>
       </c>
       <c r="AS24">
-        <v>1041.28575309563</v>
+        <v>1074.088586852481</v>
       </c>
       <c r="AT24">
-        <v>1637.590480731732</v>
+        <v>1363.072401744127</v>
       </c>
       <c r="AU24">
-        <v>9.365124426777024</v>
+        <v>13.25276966781773</v>
       </c>
       <c r="AV24">
-        <v>224.3553031595735</v>
+        <v>190.4957818033089</v>
       </c>
       <c r="AW24">
-        <v>1.22132005453117</v>
+        <v>1.795803707696591</v>
       </c>
       <c r="AX24">
-        <v>123.2876272571976</v>
+        <v>120.5405581957551</v>
       </c>
       <c r="AY24">
-        <v>46.42479231697173</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <v>7.879508961251074</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>-5.673353162143741</v>
+        <v>0</v>
       </c>
       <c r="BB24">
-        <v>5.249879837505262</v>
+        <v>7.848910745158847</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -2586,41 +4002,41 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="N25">
         <v>13.8919174559776</v>
@@ -2635,15 +4051,114 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T25">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>279.2928270547848</v>
+      </c>
+      <c r="W25">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X25">
+        <v>404.3675703999997</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z25">
+        <v>279.2928270547848</v>
+      </c>
+      <c r="AA25">
+        <v>261.2928270547848</v>
+      </c>
+      <c r="AB25">
+        <v>18</v>
+      </c>
+      <c r="AC25">
+        <v>18</v>
+      </c>
+      <c r="AD25">
+        <v>438</v>
+      </c>
+      <c r="AE25">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0.1163716472605871</v>
+      </c>
+      <c r="AI25">
+        <v>0.1163716472605871</v>
+      </c>
+      <c r="AJ25">
+        <v>0.108871670720625</v>
+      </c>
+      <c r="AL25">
+        <v>72.39867047527001</v>
+      </c>
+      <c r="AM25">
+        <v>188.8941565795148</v>
+      </c>
+      <c r="AO25">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP25">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ25">
+        <v>495.2592962073056</v>
+      </c>
+      <c r="AR25">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS25">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT25">
+        <v>1362.527317701935</v>
+      </c>
+      <c r="AU25">
+        <v>12.72476515067224</v>
+      </c>
+      <c r="AV25">
+        <v>190.5402455855983</v>
+      </c>
+      <c r="AW25">
+        <v>1.646089006083523</v>
+      </c>
+      <c r="AX25">
+        <v>120.6644507921167</v>
+      </c>
+      <c r="AY25">
+        <v>1.77635683940025E-15</v>
+      </c>
+      <c r="AZ25">
+        <v>3.012129376854839E-16</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>9.887812293673775</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
+      <c r="BD25">
         <v>0</v>
       </c>
     </row>
@@ -2651,41 +4166,41 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N26">
         <v>13.8919174559776</v>
@@ -2700,15 +4215,114 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T26">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>276.0595775504264</v>
+      </c>
+      <c r="W26">
+        <v>6.989583333333333</v>
+      </c>
+      <c r="X26">
+        <v>412.7180306999999</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z26">
+        <v>276.0595775504264</v>
+      </c>
+      <c r="AA26">
+        <v>258.0595775504264</v>
+      </c>
+      <c r="AB26">
+        <v>18</v>
+      </c>
+      <c r="AC26">
+        <v>18</v>
+      </c>
+      <c r="AD26">
+        <v>438</v>
+      </c>
+      <c r="AE26">
+        <v>5.518839676098123</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0.1150244641811131</v>
+      </c>
+      <c r="AI26">
+        <v>0.1150244641811131</v>
+      </c>
+      <c r="AJ26">
+        <v>0.107524487641151</v>
+      </c>
+      <c r="AL26">
+        <v>69.78954055396372</v>
+      </c>
+      <c r="AM26">
+        <v>188.2700369964627</v>
+      </c>
+      <c r="AO26">
+        <v>55.65424739195231</v>
+      </c>
+      <c r="AP26">
+        <v>1904.748211028318</v>
+      </c>
+      <c r="AQ26">
+        <v>495.2592962073055</v>
+      </c>
+      <c r="AR26">
+        <v>2400.007507235623</v>
+      </c>
+      <c r="AS26">
+        <v>1074.088586852481</v>
+      </c>
+      <c r="AT26">
+        <v>1364.010400009603</v>
+      </c>
+      <c r="AU26">
+        <v>15.21641398478114</v>
+      </c>
+      <c r="AV26">
+        <v>190.5246328916955</v>
+      </c>
+      <c r="AW26">
+        <v>2.254595895232841</v>
+      </c>
+      <c r="AX26">
+        <v>116.3159009232728</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>-1.95880874849091</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
         <v>0</v>
       </c>
     </row>
@@ -2716,41 +4330,41 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N27">
         <v>13.8919174559776</v>
@@ -2765,57 +4379,60 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T27">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U27">
         <v>0</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N28">
         <v>13.8919174559776</v>
@@ -2830,16 +4447,19 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T28">
         <v>0.03</v>
       </c>
       <c r="U28">
         <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:56">
@@ -2850,37 +4470,37 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M29" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N29">
         <v>13.8919174559776</v>
@@ -2895,13 +4515,13 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T29">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2915,37 +4535,37 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s">
         <v>70</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N30">
         <v>13.8919174559776</v>
@@ -2960,13 +4580,13 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T30">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2980,37 +4600,37 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
+        <v>70</v>
+      </c>
+      <c r="M31" t="s">
         <v>71</v>
-      </c>
-      <c r="M31" t="s">
-        <v>72</v>
       </c>
       <c r="N31">
         <v>13.8919174559776</v>
@@ -3025,7 +4645,7 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s">
         <v>80</v>
@@ -3034,6 +4654,102 @@
         <v>0.03</v>
       </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>308.32739559151</v>
+      </c>
+      <c r="W31">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X31">
+        <v>55.5172135</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z31">
+        <v>308.32739559151</v>
+      </c>
+      <c r="AA31">
+        <v>290.32739559151</v>
+      </c>
+      <c r="AB31">
+        <v>18</v>
+      </c>
+      <c r="AC31">
+        <v>18</v>
+      </c>
+      <c r="AD31">
+        <v>438</v>
+      </c>
+      <c r="AE31">
+        <v>5.199995371116835</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0.1139650719739834</v>
+      </c>
+      <c r="AI31">
+        <v>0.1139650719739834</v>
+      </c>
+      <c r="AJ31">
+        <v>0.1073118477556285</v>
+      </c>
+      <c r="AL31">
+        <v>75.62368457981356</v>
+      </c>
+      <c r="AM31">
+        <v>214.7037110116964</v>
+      </c>
+      <c r="AO31">
+        <v>73.76842105263158</v>
+      </c>
+      <c r="AP31">
+        <v>2021.540261052631</v>
+      </c>
+      <c r="AQ31">
+        <v>683.9149301825994</v>
+      </c>
+      <c r="AR31">
+        <v>2705.455191235231</v>
+      </c>
+      <c r="AS31">
+        <v>1186.400532720328</v>
+      </c>
+      <c r="AT31">
+        <v>1546.673888037637</v>
+      </c>
+      <c r="AU31">
+        <v>10.11465578420223</v>
+      </c>
+      <c r="AV31">
+        <v>216.060277888947</v>
+      </c>
+      <c r="AW31">
+        <v>1.356566877250631</v>
+      </c>
+      <c r="AX31">
+        <v>126.0394742996893</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>-5.616264940387126</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
         <v>0</v>
       </c>
     </row>
@@ -3045,37 +4761,37 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" t="s">
         <v>72</v>
-      </c>
-      <c r="M32" t="s">
-        <v>73</v>
       </c>
       <c r="N32">
         <v>13.8919174559776</v>
@@ -3090,7 +4806,7 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s">
         <v>80</v>
@@ -3101,8 +4817,104 @@
       <c r="U32">
         <v>0</v>
       </c>
+      <c r="V32">
+        <v>303.880780539529</v>
+      </c>
+      <c r="W32">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X32">
+        <v>50.2103266</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z32">
+        <v>303.880780539529</v>
+      </c>
+      <c r="AA32">
+        <v>285.880780539529</v>
+      </c>
+      <c r="AB32">
+        <v>18</v>
+      </c>
+      <c r="AC32">
+        <v>18</v>
+      </c>
+      <c r="AD32">
+        <v>438</v>
+      </c>
+      <c r="AE32">
+        <v>5.220297953680841</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0.1139716197697591</v>
+      </c>
+      <c r="AI32">
+        <v>0.1139716197697591</v>
+      </c>
+      <c r="AJ32">
+        <v>0.1072206526562308</v>
+      </c>
+      <c r="AL32">
+        <v>71.21225451943941</v>
+      </c>
+      <c r="AM32">
+        <v>214.6685260200896</v>
+      </c>
+      <c r="AO32">
+        <v>76.8</v>
+      </c>
+      <c r="AP32">
+        <v>2013.678164210526</v>
+      </c>
+      <c r="AQ32">
+        <v>652.6064876476909</v>
+      </c>
+      <c r="AR32">
+        <v>2666.284651858216</v>
+      </c>
+      <c r="AS32">
+        <v>1127.424503860149</v>
+      </c>
+      <c r="AT32">
+        <v>1570.506672107378</v>
+      </c>
+      <c r="AU32">
+        <v>13.82000970903989</v>
+      </c>
+      <c r="AV32">
+        <v>216.5764629569829</v>
+      </c>
+      <c r="AW32">
+        <v>1.907936936893227</v>
+      </c>
+      <c r="AX32">
+        <v>118.6870908657324</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>-5.382015366902891</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:56">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3110,37 +4922,37 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
+        <v>72</v>
+      </c>
+      <c r="M33" t="s">
         <v>73</v>
-      </c>
-      <c r="M33" t="s">
-        <v>74</v>
       </c>
       <c r="N33">
         <v>13.8919174559776</v>
@@ -3155,7 +4967,7 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s">
         <v>80</v>
@@ -3166,8 +4978,107 @@
       <c r="U33">
         <v>0</v>
       </c>
+      <c r="V33">
+        <v>307.2270504981099</v>
+      </c>
+      <c r="W33">
+        <v>0.9895833333333334</v>
+      </c>
+      <c r="X33">
+        <v>47.7376292</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z33">
+        <v>307.2270504981099</v>
+      </c>
+      <c r="AA33">
+        <v>289.2270504981099</v>
+      </c>
+      <c r="AB33">
+        <v>18</v>
+      </c>
+      <c r="AC33">
+        <v>18</v>
+      </c>
+      <c r="AD33">
+        <v>438</v>
+      </c>
+      <c r="AE33">
+        <v>5.17858578982618</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0.1179860056946603</v>
+      </c>
+      <c r="AI33">
+        <v>0.1179860056946603</v>
+      </c>
+      <c r="AJ33">
+        <v>0.1110733718655081</v>
+      </c>
+      <c r="AL33">
+        <v>73.97257635431858</v>
+      </c>
+      <c r="AM33">
+        <v>223.1339831050423</v>
+      </c>
+      <c r="AO33">
+        <v>71.74736842105263</v>
+      </c>
+      <c r="AP33">
+        <v>2029.897818947369</v>
+      </c>
+      <c r="AQ33">
+        <v>574.0300680021439</v>
+      </c>
+      <c r="AR33">
+        <v>2603.927886949513</v>
+      </c>
+      <c r="AS33">
+        <v>1041.28575309563</v>
+      </c>
+      <c r="AT33">
+        <v>1637.590480731732</v>
+      </c>
+      <c r="AU33">
+        <v>9.365124426777024</v>
+      </c>
+      <c r="AV33">
+        <v>224.3553031595735</v>
+      </c>
+      <c r="AW33">
+        <v>1.22132005453117</v>
+      </c>
+      <c r="AX33">
+        <v>123.2876272571976</v>
+      </c>
+      <c r="AY33">
+        <v>46.42479231697173</v>
+      </c>
+      <c r="AZ33">
+        <v>7.879508961251074</v>
+      </c>
+      <c r="BA33">
+        <v>-5.673353162143741</v>
+      </c>
+      <c r="BB33">
+        <v>5.249879837505262</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:56">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3175,37 +5086,37 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
         <v>74</v>
-      </c>
-      <c r="M34" t="s">
-        <v>75</v>
       </c>
       <c r="N34">
         <v>13.8919174559776</v>
@@ -3220,7 +5131,7 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s">
         <v>80</v>
@@ -3232,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:56">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3240,37 +5151,37 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L35" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35" t="s">
         <v>75</v>
-      </c>
-      <c r="M35" t="s">
-        <v>76</v>
       </c>
       <c r="N35">
         <v>13.8919174559776</v>
@@ -3285,7 +5196,7 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s">
         <v>80</v>
@@ -3297,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:56">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3305,37 +5216,37 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N36">
         <v>13.8919174559776</v>
@@ -3350,10 +5261,10 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T36">
         <v>0.03</v>
@@ -3362,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:56">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3370,37 +5281,37 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N37">
         <v>13.8919174559776</v>
@@ -3415,10 +5326,10 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T37">
         <v>0.03</v>
@@ -3427,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:56">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3435,37 +5346,37 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" t="s">
         <v>71</v>
-      </c>
-      <c r="M38" t="s">
-        <v>72</v>
       </c>
       <c r="N38">
         <v>13.8919174559776</v>
@@ -3480,7 +5391,7 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s">
         <v>81</v>
@@ -3492,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:56">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3500,37 +5411,37 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" t="s">
         <v>72</v>
-      </c>
-      <c r="M39" t="s">
-        <v>73</v>
       </c>
       <c r="N39">
         <v>13.8919174559776</v>
@@ -3545,7 +5456,7 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s">
         <v>81</v>
@@ -3557,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:56">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3565,37 +5476,37 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" t="s">
         <v>73</v>
-      </c>
-      <c r="M40" t="s">
-        <v>74</v>
       </c>
       <c r="N40">
         <v>13.8919174559776</v>
@@ -3610,7 +5521,7 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s">
         <v>81</v>
@@ -3622,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:56">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3630,37 +5541,37 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s">
+        <v>73</v>
+      </c>
+      <c r="M41" t="s">
         <v>74</v>
-      </c>
-      <c r="M41" t="s">
-        <v>75</v>
       </c>
       <c r="N41">
         <v>13.8919174559776</v>
@@ -3675,7 +5586,7 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s">
         <v>81</v>
@@ -3687,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:56">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3695,37 +5606,37 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" t="s">
         <v>75</v>
-      </c>
-      <c r="M42" t="s">
-        <v>76</v>
       </c>
       <c r="N42">
         <v>13.8919174559776</v>
@@ -3740,7 +5651,7 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s">
         <v>81</v>
@@ -3752,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:56">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3760,34 +5671,34 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M43" t="s">
         <v>76</v>
@@ -3805,19 +5716,19 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T43">
         <v>0.03</v>
       </c>
       <c r="U43">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:56">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3825,37 +5736,37 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N44">
         <v>13.8919174559776</v>
@@ -3870,19 +5781,19 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T44">
         <v>0.03</v>
       </c>
       <c r="U44">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:56">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3890,37 +5801,37 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N45">
         <v>13.8919174559776</v>
@@ -3935,19 +5846,19 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T45">
         <v>0.03</v>
       </c>
       <c r="U45">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:56">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3955,37 +5866,37 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N46">
         <v>13.8919174559776</v>
@@ -4000,19 +5911,19 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T46">
         <v>0.03</v>
       </c>
       <c r="U46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:56">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4020,37 +5931,37 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H47">
         <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N47">
         <v>13.8919174559776</v>
@@ -4065,19 +5976,19 @@
         <v>0.6</v>
       </c>
       <c r="R47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T47">
         <v>0.03</v>
       </c>
       <c r="U47">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:56">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4085,37 +5996,37 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H48">
         <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N48">
         <v>13.8919174559776</v>
@@ -4130,16 +6041,16 @@
         <v>0.6</v>
       </c>
       <c r="R48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T48">
         <v>0.03</v>
       </c>
       <c r="U48">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -4150,37 +6061,37 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H49">
         <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N49">
         <v>13.8919174559776</v>
@@ -4195,16 +6106,16 @@
         <v>0.6</v>
       </c>
       <c r="R49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T49">
         <v>0.03</v>
       </c>
       <c r="U49">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -4215,34 +6126,34 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H50">
         <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="M50" t="s">
         <v>76</v>
@@ -4260,16 +6171,16 @@
         <v>0.6</v>
       </c>
       <c r="R50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T50">
         <v>0.03</v>
       </c>
       <c r="U50">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -4280,37 +6191,37 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N51">
         <v>13.8919174559776</v>
@@ -4325,16 +6236,16 @@
         <v>0.6</v>
       </c>
       <c r="R51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T51">
         <v>0.03</v>
       </c>
       <c r="U51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4345,37 +6256,37 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H52">
         <v>438</v>
       </c>
       <c r="I52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N52">
         <v>13.8919174559776</v>
@@ -4390,16 +6301,16 @@
         <v>0.6</v>
       </c>
       <c r="R52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T52">
         <v>0.03</v>
       </c>
       <c r="U52">
-        <v>0.6</v>
+        <v>1E-05</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4410,37 +6321,37 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H53">
         <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N53">
         <v>13.8919174559776</v>
@@ -4455,16 +6366,16 @@
         <v>0.6</v>
       </c>
       <c r="R53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T53">
         <v>0.03</v>
       </c>
       <c r="U53">
-        <v>0.7</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4475,37 +6386,37 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H54">
         <v>438</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N54">
         <v>13.8919174559776</v>
@@ -4520,16 +6431,16 @@
         <v>0.6</v>
       </c>
       <c r="R54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T54">
         <v>0.03</v>
       </c>
       <c r="U54">
-        <v>0.8</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4540,37 +6451,37 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55">
         <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N55">
         <v>13.8919174559776</v>
@@ -4585,16 +6496,16 @@
         <v>0.6</v>
       </c>
       <c r="R55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T55">
         <v>0.03</v>
       </c>
       <c r="U55">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4605,37 +6516,37 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56">
         <v>438</v>
       </c>
       <c r="I56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N56">
         <v>13.8919174559776</v>
@@ -4650,16 +6561,16 @@
         <v>0.6</v>
       </c>
       <c r="R56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T56">
         <v>0.03</v>
       </c>
       <c r="U56">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4670,37 +6581,37 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57">
         <v>438</v>
       </c>
       <c r="I57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N57">
         <v>13.8919174559776</v>
@@ -4715,16 +6626,16 @@
         <v>0.6</v>
       </c>
       <c r="R57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T57">
         <v>0.03</v>
       </c>
       <c r="U57">
-        <v>10</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4735,37 +6646,37 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>438</v>
       </c>
       <c r="I58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N58">
         <v>13.8919174559776</v>
@@ -4780,16 +6691,16 @@
         <v>0.6</v>
       </c>
       <c r="R58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T58">
         <v>0.03</v>
       </c>
       <c r="U58">
-        <v>100</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4800,37 +6711,37 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H59">
         <v>438</v>
       </c>
       <c r="I59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N59">
         <v>13.8919174559776</v>
@@ -4845,16 +6756,16 @@
         <v>0.6</v>
       </c>
       <c r="R59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T59">
         <v>0.03</v>
       </c>
       <c r="U59">
-        <v>1000</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4865,37 +6776,37 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H60">
         <v>438</v>
       </c>
       <c r="I60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N60">
         <v>13.8919174559776</v>
@@ -4910,15 +6821,600 @@
         <v>0.6</v>
       </c>
       <c r="R60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T60">
         <v>0.03</v>
       </c>
       <c r="U60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61">
+        <v>438</v>
+      </c>
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" t="s">
+        <v>70</v>
+      </c>
+      <c r="M61" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O61">
+        <v>1.5</v>
+      </c>
+      <c r="P61">
+        <v>0.6</v>
+      </c>
+      <c r="Q61">
+        <v>0.6</v>
+      </c>
+      <c r="R61" t="s">
+        <v>78</v>
+      </c>
+      <c r="S61" t="s">
+        <v>80</v>
+      </c>
+      <c r="T61">
+        <v>0.03</v>
+      </c>
+      <c r="U61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62">
+        <v>438</v>
+      </c>
+      <c r="I62" t="s">
+        <v>68</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" t="s">
+        <v>69</v>
+      </c>
+      <c r="L62" t="s">
+        <v>70</v>
+      </c>
+      <c r="M62" t="s">
+        <v>77</v>
+      </c>
+      <c r="N62">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O62">
+        <v>1.5</v>
+      </c>
+      <c r="P62">
+        <v>0.6</v>
+      </c>
+      <c r="Q62">
+        <v>0.6</v>
+      </c>
+      <c r="R62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s">
+        <v>80</v>
+      </c>
+      <c r="T62">
+        <v>0.03</v>
+      </c>
+      <c r="U62">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>438</v>
+      </c>
+      <c r="I63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" t="s">
+        <v>70</v>
+      </c>
+      <c r="M63" t="s">
+        <v>77</v>
+      </c>
+      <c r="N63">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O63">
+        <v>1.5</v>
+      </c>
+      <c r="P63">
+        <v>0.6</v>
+      </c>
+      <c r="Q63">
+        <v>0.6</v>
+      </c>
+      <c r="R63" t="s">
+        <v>78</v>
+      </c>
+      <c r="S63" t="s">
+        <v>80</v>
+      </c>
+      <c r="T63">
+        <v>0.03</v>
+      </c>
+      <c r="U63">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>438</v>
+      </c>
+      <c r="I64" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64" t="s">
+        <v>69</v>
+      </c>
+      <c r="K64" t="s">
+        <v>69</v>
+      </c>
+      <c r="L64" t="s">
+        <v>70</v>
+      </c>
+      <c r="M64" t="s">
+        <v>77</v>
+      </c>
+      <c r="N64">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O64">
+        <v>1.5</v>
+      </c>
+      <c r="P64">
+        <v>0.6</v>
+      </c>
+      <c r="Q64">
+        <v>0.6</v>
+      </c>
+      <c r="R64" t="s">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s">
+        <v>80</v>
+      </c>
+      <c r="T64">
+        <v>0.03</v>
+      </c>
+      <c r="U64">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65">
+        <v>438</v>
+      </c>
+      <c r="I65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+      <c r="K65" t="s">
+        <v>69</v>
+      </c>
+      <c r="L65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M65" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O65">
+        <v>1.5</v>
+      </c>
+      <c r="P65">
+        <v>0.6</v>
+      </c>
+      <c r="Q65">
+        <v>0.6</v>
+      </c>
+      <c r="R65" t="s">
+        <v>78</v>
+      </c>
+      <c r="S65" t="s">
+        <v>80</v>
+      </c>
+      <c r="T65">
+        <v>0.03</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66">
+        <v>438</v>
+      </c>
+      <c r="I66" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" t="s">
+        <v>69</v>
+      </c>
+      <c r="K66" t="s">
+        <v>69</v>
+      </c>
+      <c r="L66" t="s">
+        <v>70</v>
+      </c>
+      <c r="M66" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O66">
+        <v>1.5</v>
+      </c>
+      <c r="P66">
+        <v>0.6</v>
+      </c>
+      <c r="Q66">
+        <v>0.6</v>
+      </c>
+      <c r="R66" t="s">
+        <v>78</v>
+      </c>
+      <c r="S66" t="s">
+        <v>80</v>
+      </c>
+      <c r="T66">
+        <v>0.03</v>
+      </c>
+      <c r="U66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67">
+        <v>438</v>
+      </c>
+      <c r="I67" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" t="s">
+        <v>69</v>
+      </c>
+      <c r="L67" t="s">
+        <v>70</v>
+      </c>
+      <c r="M67" t="s">
+        <v>77</v>
+      </c>
+      <c r="N67">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O67">
+        <v>1.5</v>
+      </c>
+      <c r="P67">
+        <v>0.6</v>
+      </c>
+      <c r="Q67">
+        <v>0.6</v>
+      </c>
+      <c r="R67" t="s">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s">
+        <v>80</v>
+      </c>
+      <c r="T67">
+        <v>0.03</v>
+      </c>
+      <c r="U67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68">
+        <v>438</v>
+      </c>
+      <c r="I68" t="s">
+        <v>68</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+      <c r="K68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" t="s">
+        <v>70</v>
+      </c>
+      <c r="M68" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O68">
+        <v>1.5</v>
+      </c>
+      <c r="P68">
+        <v>0.6</v>
+      </c>
+      <c r="Q68">
+        <v>0.6</v>
+      </c>
+      <c r="R68" t="s">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s">
+        <v>80</v>
+      </c>
+      <c r="T68">
+        <v>0.03</v>
+      </c>
+      <c r="U68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69">
+        <v>438</v>
+      </c>
+      <c r="I69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+      <c r="K69" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" t="s">
+        <v>70</v>
+      </c>
+      <c r="M69" t="s">
+        <v>77</v>
+      </c>
+      <c r="N69">
+        <v>13.8919174559776</v>
+      </c>
+      <c r="O69">
+        <v>1.5</v>
+      </c>
+      <c r="P69">
+        <v>0.6</v>
+      </c>
+      <c r="Q69">
+        <v>0.6</v>
+      </c>
+      <c r="R69" t="s">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s">
+        <v>80</v>
+      </c>
+      <c r="T69">
+        <v>0.03</v>
+      </c>
+      <c r="U69">
         <v>10000</v>
       </c>
     </row>
